--- a/site/excel.xlsx
+++ b/site/excel.xlsx
@@ -15,7 +15,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+  <si>
+    <t>NOMBRE COMPLETO</t>
+  </si>
+  <si>
+    <t>TIPO DE PQR</t>
+  </si>
+  <si>
+    <t>ASUNTO</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>FECHA DE CREACION</t>
+  </si>
+  <si>
+    <t>FECHA LIMITE</t>
+  </si>
+  <si>
+    <t>carlos toledo ojeda</t>
+  </si>
+  <si>
+    <t>Petición</t>
+  </si>
+  <si>
+    <t>peticion por ...</t>
+  </si>
+  <si>
+    <t>Vencida</t>
+  </si>
+  <si>
+    <t>2020-10-04 07:44:12</t>
+  </si>
+  <si>
+    <t>2020-10-05 07:44:12</t>
+  </si>
+  <si>
+    <t>gloria gomez gonzales</t>
+  </si>
+  <si>
+    <t>Queja</t>
+  </si>
+  <si>
+    <t>queja por ....</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t>2020-10-06 07:44:31</t>
+  </si>
+  <si>
+    <t>2020-10-09 07:44:31</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,20 +419,72 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1">
-        <v>2</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
